--- a/biology/Médecine/Promontoire_(oreille_moyenne)/Promontoire_(oreille_moyenne).xlsx
+++ b/biology/Médecine/Promontoire_(oreille_moyenne)/Promontoire_(oreille_moyenne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le promontoire de la caisse du tympan (promontorium tympani en latin) est une proéminence arrondie et creuse, située sensiblement au centre de la paroi médiale de l'oreille moyenne et due à la projection vers l'extérieur du premier tour de la cochlée.
 Il est placé entre les deux fenêtres de l'oreille interne et sa surface est parcourue par de petites gouttières, où circulent des branches du plexus tympanique.
